--- a/Story Ideas/Maps & Locations/Hogsmeade.xlsx
+++ b/Story Ideas/Maps & Locations/Hogsmeade.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Maps &amp; Locations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291EC67-E0CC-4161-8BB4-19FE592050F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -23,103 +36,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proprietor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProprietorDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speciality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InventoryLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dervish \&amp; Banges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hogsmeade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogweed \&amp; Deathcap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominic Maestro\apos{}s Music Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gladrags Wizardwear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hogsmeade Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honeydukes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Pippins Potions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceridwen\apos{}s Cauldrons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrivenshaft\apos{}s Quill Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrieking Shack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spintwitches Sporting Needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hog\apos{}s Head Inn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Magic Neep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three Broomsticks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomes and Scrolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonko\apos{}s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Proprietor</t>
+  </si>
+  <si>
+    <t>ProprietorDescription</t>
+  </si>
+  <si>
+    <t>Speciality</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>InventoryLink</t>
+  </si>
+  <si>
+    <t>Dervish \&amp; Banges</t>
+  </si>
+  <si>
+    <t>Hogsmeade</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Dogweed \&amp; Deathcap</t>
+  </si>
+  <si>
+    <t>Dominic Maestro\apos{}s Music Shop</t>
+  </si>
+  <si>
+    <t>Gladrags Wizardwear</t>
+  </si>
+  <si>
+    <t>Post Office</t>
+  </si>
+  <si>
+    <t>Hogsmeade Station</t>
+  </si>
+  <si>
+    <t>Honeydukes</t>
+  </si>
+  <si>
+    <t>J. Pippins Potions</t>
+  </si>
+  <si>
+    <t>Ceridwen\apos{}s Cauldrons</t>
+  </si>
+  <si>
+    <t>Scrivenshaft\apos{}s Quill Shop</t>
+  </si>
+  <si>
+    <t>Shrieking Shack</t>
+  </si>
+  <si>
+    <t>Spintwitches Sporting Needs</t>
+  </si>
+  <si>
+    <t>Hog\apos{}s Head Inn</t>
+  </si>
+  <si>
+    <t>The Magic Neep</t>
+  </si>
+  <si>
+    <t>Three Broomsticks</t>
+  </si>
+  <si>
+    <t>Tomes and Scrolls</t>
+  </si>
+  <si>
+    <t>Zonko\apos{}s</t>
+  </si>
+  <si>
+    <t>blottsBooks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,22 +140,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -158,7 +156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -166,86 +164,352 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -277,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -303,10 +567,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -314,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -322,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -330,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -338,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -346,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -354,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -362,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -370,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -378,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -386,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -394,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -402,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -410,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -418,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -426,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -435,14 +699,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>